--- a/src/test/resources/org/cpicpgx/util/superscript_example.xlsx
+++ b/src/test/resources/org/cpicpgx/util/superscript_example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/whaleyr/cpic/code/CpicData/src/test/resources/org/cpicpgx/util/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA577603-82D6-B040-92FC-9F9F40A868D3}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0715FD-B12C-E448-972B-F52F01C40BF4}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10220" yWindow="8160" windowWidth="26440" windowHeight="15440" xr2:uid="{15EC4A7B-104F-374E-B25A-7F594D072804}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>CYP2C19 Diplotype</t>
   </si>
@@ -70,12 +70,38 @@
   <si>
     <t>Normal/Routine/Low Risk</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">test a </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>midstring</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> styling</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -116,6 +142,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -490,9 +524,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{828313AE-B22E-594D-8A08-C0CA2B12161E}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -539,6 +571,9 @@
         <f>A3*B3</f>
         <v>3.75</v>
       </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
